--- a/biology/Botanique/Pholiota/Pholiota.xlsx
+++ b/biology/Botanique/Pholiota/Pholiota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pholiota est un genre de champignons basidiomycètes de la famille des Strophariaceae. La plupart des espèces sont appelées « pholiotes » en français, bien que ce terme s'applique aussi à d'autres champignons. Elles poussent en touffe, la cuticule est écailleuse ou gluante.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le terme "pholiote" est tiré du grec φολίς (pholis) signifiant « écaille ».
 On appelle aussi communément « pholiotes » des champignons lignicoles jadis classifiés parmi les Pholiota et ayant aujourd'hui rejoint d'autres genres :
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De petits à grande sporophores saprophytes se développent souvent connés, cespiteux ou fasciculés sur des souches en décomposition.
 La cuticule est colorée de jaune, brun à vert olive, souvent écailleuse, elle peut également être visqueuse.
